--- a/Observational-data/IncipientMotion_data_compilation.xlsx
+++ b/Observational-data/IncipientMotion_data_compilation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottfeehan/Box Sync/Writing/Incipient Motion - Monte Carlo/JGR-Earth Surface Package/Data compilation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottfeehan/Box Sync/Writing/Incipient Motion - Monte Carlo/Review second round/Hydroshare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD7FE1A-3897-F043-B024-BDF063084E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF9D94-5572-7C47-881F-3C3BD6827EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="20120" activeTab="2" xr2:uid="{071F6ABF-5FF2-CD41-A345-C25FB58CB379}"/>
+    <workbookView xWindow="30960" yWindow="500" windowWidth="25640" windowHeight="18880" activeTab="5" xr2:uid="{071F6ABF-5FF2-CD41-A345-C25FB58CB379}"/>
   </bookViews>
   <sheets>
     <sheet name="Shields_comp_field" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Helley" sheetId="3" r:id="rId3"/>
     <sheet name="Wu_Shih_Exp1" sheetId="4" r:id="rId4"/>
     <sheet name="Wu_Shih_Exp2" sheetId="5" r:id="rId5"/>
+    <sheet name="Meyer-Peter_Muller" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="439">
   <si>
     <t>Shields stress</t>
   </si>
@@ -1659,6 +1660,39 @@
   </si>
   <si>
     <t>time relative to incipient motion (s)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>width (m)</t>
+  </si>
+  <si>
+    <t>grain size (mm)</t>
+  </si>
+  <si>
+    <t>rho_s (kg/m3)</t>
+  </si>
+  <si>
+    <t>rho (kg/m3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> flow velocity (m/s)</t>
+  </si>
+  <si>
+    <t>discharge (m3/s)</t>
+  </si>
+  <si>
+    <t>dimensionless bedload flux per unit width</t>
+  </si>
+  <si>
+    <t>grain sorting coefficient</t>
+  </si>
+  <si>
+    <t>Froude number</t>
+  </si>
+  <si>
+    <t>Reynolds number</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1717,7 +1751,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17501,8 +17534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD92A1D-5448-FF43-94D5-A5198E3F66FD}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17540,22 +17573,22 @@
       <c r="A2">
         <v>30</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2">
         <v>0.12192</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2">
         <v>0.15240000000000001</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>0.36575999999999997</v>
       </c>
       <c r="E2">
         <v>2720</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>2.8300000000000001E-3</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2">
         <v>1.34128</v>
       </c>
     </row>
@@ -17563,22 +17596,22 @@
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3">
         <v>0.15240000000000001</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3">
         <v>0.18287999999999999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3">
         <v>0.30480000000000002</v>
       </c>
       <c r="E3">
         <v>2700</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>3.679E-3</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3">
         <v>1.3613599999999999</v>
       </c>
     </row>
@@ -17586,22 +17619,22 @@
       <c r="A4">
         <v>17</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>0.15240000000000001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>0.16764000000000001</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>0.25907999999999998</v>
       </c>
       <c r="E4">
         <v>2700</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>2.8300000000000001E-3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4">
         <v>1.4216</v>
       </c>
     </row>
@@ -17609,22 +17642,22 @@
       <c r="A5">
         <v>15</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>0.16764000000000001</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>0.19811999999999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>0.38100000000000001</v>
       </c>
       <c r="E5">
         <v>2850</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>5.3769999999999998E-3</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5">
         <v>1.42963</v>
       </c>
     </row>
@@ -17632,22 +17665,22 @@
       <c r="A6">
         <v>32</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>0.15240000000000001</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>0.2286</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>0.42671999999999999</v>
       </c>
       <c r="E6">
         <v>2720</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>6.2259999999999998E-3</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6">
         <v>1.5179800000000001</v>
       </c>
     </row>
@@ -17655,22 +17688,22 @@
       <c r="A7">
         <v>33</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>0.18287999999999999</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>0.21335999999999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>0.32003999999999999</v>
       </c>
       <c r="E7">
         <v>2720</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>5.3769999999999998E-3</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7">
         <v>1.52199</v>
       </c>
     </row>
@@ -17678,22 +17711,22 @@
       <c r="A8">
         <v>23</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>0.19811999999999999</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>0.27432000000000001</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>0.50292000000000003</v>
       </c>
       <c r="E8">
         <v>2720</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>1.132E-2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8">
         <v>1.53806</v>
       </c>
     </row>
@@ -17701,22 +17734,22 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>0.18287999999999999</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>0.25907999999999998</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>0.51815999999999995</v>
       </c>
       <c r="E9">
         <v>2720</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>1.0187999999999999E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9">
         <v>1.5701799999999999</v>
       </c>
     </row>
@@ -17724,22 +17757,22 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>0.27432000000000001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>0.27432000000000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10">
         <v>0.59436</v>
       </c>
       <c r="E10">
         <v>2710</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>1.5848000000000001E-2</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10">
         <v>1.59829</v>
       </c>
     </row>
@@ -17747,22 +17780,22 @@
       <c r="A11">
         <v>37</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11">
         <v>9.1439999999999994E-2</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11">
         <v>0.21335999999999999</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11">
         <v>0.25907999999999998</v>
       </c>
       <c r="E11">
         <v>2740</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11">
         <v>1.9810000000000001E-3</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11">
         <v>1.60632</v>
       </c>
     </row>
@@ -17770,22 +17803,22 @@
       <c r="A12">
         <v>28</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12">
         <v>0.19811999999999999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12">
         <v>0.30480000000000002</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12">
         <v>0.57911999999999997</v>
       </c>
       <c r="E12">
         <v>2720</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>1.4433E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12">
         <v>1.63042</v>
       </c>
     </row>
@@ -17793,22 +17826,22 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13">
         <v>0.18287999999999999</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13">
         <v>0.27432000000000001</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13">
         <v>0.48768</v>
       </c>
       <c r="E13">
         <v>2850</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>1.0187999999999999E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13">
         <v>1.66255</v>
       </c>
     </row>
@@ -17816,22 +17849,22 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14">
         <v>0.2286</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14">
         <v>0.2286</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14">
         <v>0.41148000000000001</v>
       </c>
       <c r="E14">
         <v>3100</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>9.0559999999999998E-3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14">
         <v>1.67058</v>
       </c>
     </row>
@@ -17839,22 +17872,22 @@
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15">
         <v>0.15240000000000001</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15">
         <v>0.21335999999999999</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15">
         <v>0.39623999999999998</v>
       </c>
       <c r="E15">
         <v>2740</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>5.3769999999999998E-3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15">
         <v>1.6906600000000001</v>
       </c>
     </row>
@@ -17862,22 +17895,22 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16">
         <v>0.13716</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16">
         <v>0.24384</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16">
         <v>0.44196000000000002</v>
       </c>
       <c r="E16">
         <v>2720</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>6.2259999999999998E-3</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16">
         <v>1.7107399999999999</v>
       </c>
     </row>
@@ -17885,22 +17918,22 @@
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17">
         <v>0.18287999999999999</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17">
         <v>0.28955999999999998</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17">
         <v>0.36575999999999997</v>
       </c>
       <c r="E17">
         <v>2720</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>8.2070000000000008E-3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17">
         <v>1.7187699999999999</v>
       </c>
     </row>
@@ -17908,22 +17941,22 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18">
         <v>0.2286</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18">
         <v>0.2286</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18">
         <v>0.28955999999999998</v>
       </c>
       <c r="E18">
         <v>2650</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>6.2259999999999998E-3</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18">
         <v>1.7709699999999999</v>
       </c>
     </row>
@@ -17931,22 +17964,22 @@
       <c r="A19">
         <v>21</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19">
         <v>0.27432000000000001</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19">
         <v>0.28955999999999998</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19">
         <v>0.42671999999999999</v>
       </c>
       <c r="E19">
         <v>2720</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>1.4149999999999999E-2</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19">
         <v>1.7749900000000001</v>
       </c>
     </row>
@@ -17954,22 +17987,22 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20">
         <v>0.16764000000000001</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20">
         <v>0.33528000000000002</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20">
         <v>0.4572</v>
       </c>
       <c r="E20">
         <v>2700</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>1.0754E-2</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20">
         <v>1.7789999999999999</v>
       </c>
     </row>
@@ -17977,22 +18010,22 @@
       <c r="A21">
         <v>34</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21">
         <v>0.15240000000000001</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21">
         <v>0.30480000000000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21">
         <v>0.36575999999999997</v>
       </c>
       <c r="E21">
         <v>2720</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>7.0749999999999997E-3</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21">
         <v>1.8512900000000001</v>
       </c>
     </row>
@@ -18000,22 +18033,22 @@
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22">
         <v>0.21335999999999999</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22">
         <v>0.25907999999999998</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22">
         <v>0.39623999999999998</v>
       </c>
       <c r="E22">
         <v>2640</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>9.0559999999999998E-3</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22">
         <v>1.8512900000000001</v>
       </c>
     </row>
@@ -18023,22 +18056,22 @@
       <c r="A23">
         <v>26</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23">
         <v>0.27432000000000001</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23">
         <v>0.33528000000000002</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23">
         <v>0.51815999999999995</v>
       </c>
       <c r="E23">
         <v>2650</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23">
         <v>1.9810000000000001E-2</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23">
         <v>1.90751</v>
       </c>
     </row>
@@ -18046,22 +18079,22 @@
       <c r="A24">
         <v>29</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24">
         <v>0.19811999999999999</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24">
         <v>0.30480000000000002</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24">
         <v>0.36575999999999997</v>
       </c>
       <c r="E24">
         <v>2650</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>9.3390000000000001E-3</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24">
         <v>1.94767</v>
       </c>
     </row>
@@ -18069,22 +18102,22 @@
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25">
         <v>0.10668</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25">
         <v>0.33528000000000002</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25">
         <v>0.36575999999999997</v>
       </c>
       <c r="E25">
         <v>2720</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25">
         <v>5.3769999999999998E-3</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25">
         <v>1.9557</v>
       </c>
     </row>
@@ -18092,22 +18125,22 @@
       <c r="A26">
         <v>35</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26">
         <v>0.13716</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26">
         <v>0.28955999999999998</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26">
         <v>0.38100000000000001</v>
       </c>
       <c r="E26">
         <v>2850</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26">
         <v>6.509E-3</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26">
         <v>2.0079099999999999</v>
       </c>
     </row>
@@ -18115,22 +18148,22 @@
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27">
         <v>9.1439999999999994E-2</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27">
         <v>0.32003999999999999</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>0.42671999999999999</v>
       </c>
       <c r="E27">
         <v>2850</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <v>5.0939999999999996E-3</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27">
         <v>2.0440499999999999</v>
       </c>
     </row>
@@ -18138,22 +18171,22 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28">
         <v>0.28955999999999998</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28">
         <v>0.41148000000000001</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>0.51815999999999995</v>
       </c>
       <c r="E28">
         <v>2850</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28">
         <v>2.5753000000000002E-2</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28">
         <v>2.2046800000000002</v>
       </c>
     </row>
@@ -18161,22 +18194,22 @@
       <c r="A29">
         <v>19</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29">
         <v>0.24384</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29">
         <v>0.28955999999999998</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29">
         <v>0.44196000000000002</v>
       </c>
       <c r="E29">
         <v>2850</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29">
         <v>1.3018E-2</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29">
         <v>2.2247599999999998</v>
       </c>
     </row>
@@ -18184,22 +18217,22 @@
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30">
         <v>0.18287999999999999</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>0.30480000000000002</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30">
         <v>0.48768</v>
       </c>
       <c r="E30">
         <v>2850</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30">
         <v>1.9810000000000001E-2</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30">
         <v>2.2368100000000002</v>
       </c>
     </row>
@@ -18207,22 +18240,22 @@
       <c r="A31">
         <v>24</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31">
         <v>0.16764000000000001</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31">
         <v>0.39623999999999998</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31">
         <v>0.47244000000000003</v>
       </c>
       <c r="E31">
         <v>2850</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31">
         <v>1.2735E-2</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31">
         <v>2.2408199999999998</v>
       </c>
     </row>
@@ -18230,22 +18263,22 @@
       <c r="A32">
         <v>22</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32">
         <v>0.24384</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32">
         <v>0.33528000000000002</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32">
         <v>0.35052</v>
       </c>
       <c r="E32">
         <v>2850</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32">
         <v>1.1886000000000001E-2</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32">
         <v>2.3251499999999998</v>
       </c>
     </row>
@@ -18253,22 +18286,22 @@
       <c r="A33">
         <v>25</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33">
         <v>0.21335999999999999</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33">
         <v>0.44196000000000002</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33">
         <v>0.51815999999999995</v>
       </c>
       <c r="E33">
         <v>2650</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33">
         <v>2.0375999999999998E-2</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33">
         <v>2.3813800000000001</v>
       </c>
     </row>
@@ -18276,22 +18309,22 @@
       <c r="A34">
         <v>36</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34">
         <v>0.36575999999999997</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34">
         <v>0.4572</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34">
         <v>0.60960000000000003</v>
       </c>
       <c r="E34">
         <v>2850</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34">
         <v>4.2450000000000002E-2</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34">
         <v>2.5580699999999998</v>
       </c>
     </row>
@@ -18299,22 +18332,22 @@
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35">
         <v>0.24384</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35">
         <v>0.51815999999999995</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35">
         <v>0.57911999999999997</v>
       </c>
       <c r="E35">
         <v>2650</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35">
         <v>3.0564000000000001E-2</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35">
         <v>2.5942099999999999</v>
       </c>
     </row>
@@ -18322,22 +18355,22 @@
       <c r="A36">
         <v>10</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36">
         <v>0.16764000000000001</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36">
         <v>0.38100000000000001</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36">
         <v>0.50292000000000003</v>
       </c>
       <c r="E36">
         <v>2700</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36">
         <v>1.3301E-2</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36">
         <v>2.6343700000000001</v>
       </c>
     </row>
@@ -18345,22 +18378,22 @@
       <c r="A37">
         <v>20</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37">
         <v>0.18287999999999999</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37">
         <v>0.42671999999999999</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37">
         <v>0.47244000000000003</v>
       </c>
       <c r="E37">
         <v>2850</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37">
         <v>1.5282E-2</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37">
         <v>2.97973</v>
       </c>
     </row>
@@ -18373,7 +18406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416177B9-BE47-5542-9CA5-93FD34D22D9C}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -19381,4 +19414,4695 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD48F-1518-214F-AB23-49768D13FE32}">
+  <dimension ref="A1:N106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>434</v>
+      </c>
+      <c r="I1" t="s">
+        <v>433</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>437</v>
+      </c>
+      <c r="L1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1026</v>
+      </c>
+      <c r="B2">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C2">
+        <v>28.7</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2680</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H2">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I2">
+        <v>2.12</v>
+      </c>
+      <c r="J2">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="K2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="L2">
+        <v>591842</v>
+      </c>
+      <c r="M2">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N2">
+        <v>1.72E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1027</v>
+      </c>
+      <c r="B3">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C3">
+        <v>28.7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2680</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>6.5399999999999998E-3</v>
+      </c>
+      <c r="H3">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.85</v>
+      </c>
+      <c r="J3">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.92</v>
+      </c>
+      <c r="L3">
+        <v>568468</v>
+      </c>
+      <c r="M3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="N3">
+        <v>4.4700000000000002E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1028</v>
+      </c>
+      <c r="B4">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C4">
+        <v>28.7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2680</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J4">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="K4">
+        <v>1.08</v>
+      </c>
+      <c r="L4">
+        <v>587435</v>
+      </c>
+      <c r="M4">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N4">
+        <v>9.3799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1029</v>
+      </c>
+      <c r="B5">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C5">
+        <v>28.7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2680</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>9.2800000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.6404399999999999</v>
+      </c>
+      <c r="I5">
+        <v>2.06</v>
+      </c>
+      <c r="J5">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K5">
+        <v>1.08</v>
+      </c>
+      <c r="L5">
+        <v>586626</v>
+      </c>
+      <c r="M5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N5">
+        <v>8.5299999999999994E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1030</v>
+      </c>
+      <c r="B6">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C6">
+        <v>28.7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2680</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>9.2300000000000004E-3</v>
+      </c>
+      <c r="H6">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I6">
+        <v>2.06</v>
+      </c>
+      <c r="J6">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K6">
+        <v>1.08</v>
+      </c>
+      <c r="L6">
+        <v>586804</v>
+      </c>
+      <c r="M6">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N6">
+        <v>9.2800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1031</v>
+      </c>
+      <c r="B7">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C7">
+        <v>28.7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2680</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>9.1500000000000001E-3</v>
+      </c>
+      <c r="H7">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I7">
+        <v>2.06</v>
+      </c>
+      <c r="J7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="K7">
+        <v>1.08</v>
+      </c>
+      <c r="L7">
+        <v>586679</v>
+      </c>
+      <c r="M7">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N7">
+        <v>9.6100000000000005E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1032</v>
+      </c>
+      <c r="B8">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C8">
+        <v>28.7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2680</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="K8">
+        <v>1.08</v>
+      </c>
+      <c r="L8">
+        <v>587309</v>
+      </c>
+      <c r="M8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N8">
+        <v>9.3799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1033</v>
+      </c>
+      <c r="B9">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C9">
+        <v>28.7</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2680</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>1.3729999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I9">
+        <v>2.23</v>
+      </c>
+      <c r="J9">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="K9">
+        <v>1.21</v>
+      </c>
+      <c r="L9">
+        <v>599890</v>
+      </c>
+      <c r="M9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N9">
+        <v>3.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1034</v>
+      </c>
+      <c r="B10">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C10">
+        <v>28.7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2680</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="H10">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I10">
+        <v>1.99</v>
+      </c>
+      <c r="J10">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="K10">
+        <v>1.03</v>
+      </c>
+      <c r="L10">
+        <v>580987</v>
+      </c>
+      <c r="M10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N10">
+        <v>4.7200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1035</v>
+      </c>
+      <c r="B11">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C11">
+        <v>28.7</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2680</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>7.6099999999999996E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I11">
+        <v>1.96</v>
+      </c>
+      <c r="J11">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="K11">
+        <v>1.01</v>
+      </c>
+      <c r="L11">
+        <v>578733</v>
+      </c>
+      <c r="M11">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>3.0300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1036</v>
+      </c>
+      <c r="B12">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C12">
+        <v>28.7</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2680</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>5.6100000000000004E-3</v>
+      </c>
+      <c r="H12">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I12">
+        <v>1.81</v>
+      </c>
+      <c r="J12">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.89</v>
+      </c>
+      <c r="L12">
+        <v>564285</v>
+      </c>
+      <c r="M12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N12">
+        <v>2.9799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1037</v>
+      </c>
+      <c r="B13">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C13">
+        <v>28.7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2680</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>1.7690000000000001E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I13">
+        <v>2.4</v>
+      </c>
+      <c r="J13">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="K13">
+        <v>1.34</v>
+      </c>
+      <c r="L13">
+        <v>611470</v>
+      </c>
+      <c r="M13">
+        <v>0.12</v>
+      </c>
+      <c r="N13">
+        <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1038</v>
+      </c>
+      <c r="B14">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C14">
+        <v>28.7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2680</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>1.2189999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I14">
+        <v>2.74</v>
+      </c>
+      <c r="J14">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="K14">
+        <v>1.18</v>
+      </c>
+      <c r="L14">
+        <v>1024295</v>
+      </c>
+      <c r="M14">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N14">
+        <v>8.0299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1039</v>
+      </c>
+      <c r="B15">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C15">
+        <v>28.7</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2680</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>8.4799999999999997E-3</v>
+      </c>
+      <c r="H15">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I15">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="J15">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="K15">
+        <v>1.04</v>
+      </c>
+      <c r="L15">
+        <v>989706</v>
+      </c>
+      <c r="M15">
+        <v>0.104</v>
+      </c>
+      <c r="N15">
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1040</v>
+      </c>
+      <c r="B16">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C16">
+        <v>28.7</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2680</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <v>7.0699999999999999E-3</v>
+      </c>
+      <c r="H16">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I16">
+        <v>2.36</v>
+      </c>
+      <c r="J16">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="K16">
+        <v>0.95</v>
+      </c>
+      <c r="L16">
+        <v>965686</v>
+      </c>
+      <c r="M16">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N16">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1041</v>
+      </c>
+      <c r="B17">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C17">
+        <v>28.7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2680</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>5.9199999999999999E-3</v>
+      </c>
+      <c r="H17">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I17">
+        <v>2.27</v>
+      </c>
+      <c r="J17">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K17">
+        <v>0.9</v>
+      </c>
+      <c r="L17">
+        <v>950090</v>
+      </c>
+      <c r="M17">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N17">
+        <v>9.1500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1042</v>
+      </c>
+      <c r="B18">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C18">
+        <v>28.7</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2680</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <v>5.7800000000000004E-3</v>
+      </c>
+      <c r="H18">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I18">
+        <v>2.25</v>
+      </c>
+      <c r="J18">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.89</v>
+      </c>
+      <c r="L18">
+        <v>946242</v>
+      </c>
+      <c r="M18">
+        <v>7.8E-2</v>
+      </c>
+      <c r="N18">
+        <v>9.1500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1043</v>
+      </c>
+      <c r="B19">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C19">
+        <v>28.7</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2680</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19">
+        <v>3.5200000000000001E-3</v>
+      </c>
+      <c r="H19">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I19">
+        <v>1.96</v>
+      </c>
+      <c r="J19">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="K19">
+        <v>0.74</v>
+      </c>
+      <c r="L19">
+        <v>891707</v>
+      </c>
+      <c r="M19">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N19">
+        <v>2.9700000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1044</v>
+      </c>
+      <c r="B20">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C20">
+        <v>28.7</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2680</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="H20">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I20">
+        <v>1.92</v>
+      </c>
+      <c r="J20">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="K20">
+        <v>0.71</v>
+      </c>
+      <c r="L20">
+        <v>882754</v>
+      </c>
+      <c r="M20">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N20">
+        <v>2.4699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1045</v>
+      </c>
+      <c r="B21">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C21">
+        <v>28.7</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2680</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>1.2409999999999999E-2</v>
+      </c>
+      <c r="H21">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I21">
+        <v>2.73</v>
+      </c>
+      <c r="J21">
+        <v>0.6</v>
+      </c>
+      <c r="K21">
+        <v>1.17</v>
+      </c>
+      <c r="L21">
+        <v>1022566</v>
+      </c>
+      <c r="M21">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="N21">
+        <v>8.0299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1046</v>
+      </c>
+      <c r="B22">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C22">
+        <v>28.7</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2680</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>1.0869999999999999E-2</v>
+      </c>
+      <c r="H22">
+        <v>4.61381</v>
+      </c>
+      <c r="I22">
+        <v>2.88</v>
+      </c>
+      <c r="J22">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="K22">
+        <v>1.08</v>
+      </c>
+      <c r="L22">
+        <v>1281043</v>
+      </c>
+      <c r="M22">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1047</v>
+      </c>
+      <c r="B23">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C23">
+        <v>28.7</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2680</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>1.0670000000000001E-2</v>
+      </c>
+      <c r="H23">
+        <v>4.4827000000000004</v>
+      </c>
+      <c r="I23">
+        <v>2.87</v>
+      </c>
+      <c r="J23">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K23">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="L23">
+        <v>1258690</v>
+      </c>
+      <c r="M23">
+        <v>0.157</v>
+      </c>
+      <c r="N23">
+        <v>8.0600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1048</v>
+      </c>
+      <c r="B24">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C24">
+        <v>25.7</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2680</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>7.3899999999999999E-3</v>
+      </c>
+      <c r="H24">
+        <v>4.5778400000000001</v>
+      </c>
+      <c r="I24">
+        <v>2.66</v>
+      </c>
+      <c r="J24">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.97</v>
+      </c>
+      <c r="L24">
+        <v>1230603</v>
+      </c>
+      <c r="M24">
+        <v>0.13</v>
+      </c>
+      <c r="N24">
+        <v>4.2700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1049</v>
+      </c>
+      <c r="B25">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C25">
+        <v>28.7</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2680</v>
+      </c>
+      <c r="F25">
+        <v>1000</v>
+      </c>
+      <c r="G25">
+        <v>7.3699999999999998E-3</v>
+      </c>
+      <c r="H25">
+        <v>4.5537700000000001</v>
+      </c>
+      <c r="I25">
+        <v>2.67</v>
+      </c>
+      <c r="J25">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="K25">
+        <v>0.98</v>
+      </c>
+      <c r="L25">
+        <v>1229420</v>
+      </c>
+      <c r="M25">
+        <v>0.115</v>
+      </c>
+      <c r="N25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1050</v>
+      </c>
+      <c r="B26">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C26">
+        <v>28.7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2680</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>5.7800000000000004E-3</v>
+      </c>
+      <c r="H26">
+        <v>4.5829399999999998</v>
+      </c>
+      <c r="I26">
+        <v>2.52</v>
+      </c>
+      <c r="J26">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K26">
+        <v>0.91</v>
+      </c>
+      <c r="L26">
+        <v>1201294</v>
+      </c>
+      <c r="M26">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="N26">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1051</v>
+      </c>
+      <c r="B27">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C27">
+        <v>28.7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2680</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>5.7499999999999999E-3</v>
+      </c>
+      <c r="H27">
+        <v>4.6087100000000003</v>
+      </c>
+      <c r="I27">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J27">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="K27">
+        <v>0.89</v>
+      </c>
+      <c r="L27">
+        <v>1197130</v>
+      </c>
+      <c r="M27">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="N27">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1052</v>
+      </c>
+      <c r="B28">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C28">
+        <v>28.7</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2680</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+      <c r="G28">
+        <v>4.79E-3</v>
+      </c>
+      <c r="H28">
+        <v>4.5999299999999996</v>
+      </c>
+      <c r="I28">
+        <v>2.36</v>
+      </c>
+      <c r="J28">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K28">
+        <v>0.82</v>
+      </c>
+      <c r="L28">
+        <v>1165720</v>
+      </c>
+      <c r="M28">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N28">
+        <v>8.9800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1053</v>
+      </c>
+      <c r="B29">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C29">
+        <v>28.7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2680</v>
+      </c>
+      <c r="F29">
+        <v>1000</v>
+      </c>
+      <c r="G29">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="H29">
+        <v>4.5999299999999996</v>
+      </c>
+      <c r="I29">
+        <v>2.4</v>
+      </c>
+      <c r="J29">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="K29">
+        <v>0.84</v>
+      </c>
+      <c r="L29">
+        <v>1173332</v>
+      </c>
+      <c r="M29">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N29">
+        <v>9.0399999999999994E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1054</v>
+      </c>
+      <c r="B30">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C30">
+        <v>28.7</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2680</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <v>3.1700000000000001E-3</v>
+      </c>
+      <c r="H30">
+        <v>4.5999299999999996</v>
+      </c>
+      <c r="I30">
+        <v>2.11</v>
+      </c>
+      <c r="J30">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0.7</v>
+      </c>
+      <c r="L30">
+        <v>1099620</v>
+      </c>
+      <c r="M30">
+        <v>0.06</v>
+      </c>
+      <c r="N30">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1055</v>
+      </c>
+      <c r="B31">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C31">
+        <v>28.7</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2680</v>
+      </c>
+      <c r="F31">
+        <v>1000</v>
+      </c>
+      <c r="G31">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="H31">
+        <v>4.5999299999999996</v>
+      </c>
+      <c r="I31">
+        <v>2.11</v>
+      </c>
+      <c r="J31">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="K31">
+        <v>0.7</v>
+      </c>
+      <c r="L31">
+        <v>1099620</v>
+      </c>
+      <c r="M31">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N31">
+        <v>2.7799999999999998E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1056</v>
+      </c>
+      <c r="B32">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C32">
+        <v>28.7</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2680</v>
+      </c>
+      <c r="F32">
+        <v>1000</v>
+      </c>
+      <c r="G32">
+        <v>1.7670000000000002E-2</v>
+      </c>
+      <c r="H32">
+        <v>1.6409400000000001</v>
+      </c>
+      <c r="I32">
+        <v>2.34</v>
+      </c>
+      <c r="J32">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="K32">
+        <v>1.29</v>
+      </c>
+      <c r="L32">
+        <v>607621</v>
+      </c>
+      <c r="M32">
+        <v>0.123</v>
+      </c>
+      <c r="N32">
+        <v>8.0500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1057</v>
+      </c>
+      <c r="B33">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="C33">
+        <v>28.7</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2680</v>
+      </c>
+      <c r="F33">
+        <v>1000</v>
+      </c>
+      <c r="G33">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="H33">
+        <v>3.2707799999999998</v>
+      </c>
+      <c r="I33">
+        <v>1.99</v>
+      </c>
+      <c r="J33">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="K33">
+        <v>0.75</v>
+      </c>
+      <c r="L33">
+        <v>897481</v>
+      </c>
+      <c r="M33">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N33">
+        <v>2.9700000000000001E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1058</v>
+      </c>
+      <c r="B34">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C34">
+        <v>5.2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2680</v>
+      </c>
+      <c r="F34">
+        <v>1000</v>
+      </c>
+      <c r="G34">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="H34">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="I34">
+        <v>1.02</v>
+      </c>
+      <c r="J34">
+        <v>0.06</v>
+      </c>
+      <c r="K34">
+        <v>1.38</v>
+      </c>
+      <c r="L34">
+        <v>45759</v>
+      </c>
+      <c r="M34">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N34">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1059</v>
+      </c>
+      <c r="B35">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C35">
+        <v>5.2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2680</v>
+      </c>
+      <c r="F35">
+        <v>1000</v>
+      </c>
+      <c r="G35">
+        <v>9.6399999999999993E-3</v>
+      </c>
+      <c r="H35">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="I35">
+        <v>0.86</v>
+      </c>
+      <c r="J35">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="K35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L35">
+        <v>43730</v>
+      </c>
+      <c r="M35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N35">
+        <v>8.9599999999999992E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1060</v>
+      </c>
+      <c r="B36">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C36">
+        <v>5.2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2680</v>
+      </c>
+      <c r="F36">
+        <v>1000</v>
+      </c>
+      <c r="G36">
+        <v>1.2670000000000001E-2</v>
+      </c>
+      <c r="H36">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="I36">
+        <v>0.92</v>
+      </c>
+      <c r="J36">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="K36">
+        <v>1.19</v>
+      </c>
+      <c r="L36">
+        <v>44483</v>
+      </c>
+      <c r="M36">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N36">
+        <v>2.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1061</v>
+      </c>
+      <c r="B37">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C37">
+        <v>5.2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>2680</v>
+      </c>
+      <c r="F37">
+        <v>1000</v>
+      </c>
+      <c r="G37">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H37">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K37">
+        <v>1.36</v>
+      </c>
+      <c r="L37">
+        <v>45567</v>
+      </c>
+      <c r="M37">
+        <v>0.112</v>
+      </c>
+      <c r="N37">
+        <v>6.1199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1062</v>
+      </c>
+      <c r="B38">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C38">
+        <v>5.2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2680</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38">
+        <v>2.2259999999999999E-2</v>
+      </c>
+      <c r="H38">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="I38">
+        <v>1.06</v>
+      </c>
+      <c r="J38">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K38">
+        <v>1.47</v>
+      </c>
+      <c r="L38">
+        <v>46228</v>
+      </c>
+      <c r="M38">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N38">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1063</v>
+      </c>
+      <c r="B39">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C39">
+        <v>5.2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2680</v>
+      </c>
+      <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39">
+        <v>1.12E-2</v>
+      </c>
+      <c r="H39">
+        <v>6.0789999999999997E-2</v>
+      </c>
+      <c r="I39">
+        <v>1.26</v>
+      </c>
+      <c r="J39">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="K39">
+        <v>1.19</v>
+      </c>
+      <c r="L39">
+        <v>97053</v>
+      </c>
+      <c r="M39">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="N39">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1064</v>
+      </c>
+      <c r="B40">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C40">
+        <v>5.2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2680</v>
+      </c>
+      <c r="F40">
+        <v>1000</v>
+      </c>
+      <c r="G40">
+        <v>8.8800000000000007E-3</v>
+      </c>
+      <c r="H40">
+        <v>6.0789999999999997E-2</v>
+      </c>
+      <c r="I40">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J40">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="K40">
+        <v>1.07</v>
+      </c>
+      <c r="L40">
+        <v>93673</v>
+      </c>
+      <c r="M40">
+        <v>0.123</v>
+      </c>
+      <c r="N40">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1065</v>
+      </c>
+      <c r="B41">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C41">
+        <v>5.2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2680</v>
+      </c>
+      <c r="F41">
+        <v>1000</v>
+      </c>
+      <c r="G41">
+        <v>6.2300000000000003E-3</v>
+      </c>
+      <c r="H41">
+        <v>6.0789999999999997E-2</v>
+      </c>
+      <c r="I41">
+        <v>1.07</v>
+      </c>
+      <c r="J41">
+        <v>0.16</v>
+      </c>
+      <c r="K41">
+        <v>0.96</v>
+      </c>
+      <c r="L41">
+        <v>90119</v>
+      </c>
+      <c r="M41">
+        <v>0.09</v>
+      </c>
+      <c r="N41">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1066</v>
+      </c>
+      <c r="B42">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C42">
+        <v>5.2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2680</v>
+      </c>
+      <c r="F42">
+        <v>1000</v>
+      </c>
+      <c r="G42">
+        <v>6.3299999999999997E-3</v>
+      </c>
+      <c r="H42">
+        <v>6.0789999999999997E-2</v>
+      </c>
+      <c r="I42">
+        <v>1.07</v>
+      </c>
+      <c r="J42">
+        <v>0.16</v>
+      </c>
+      <c r="K42">
+        <v>0.96</v>
+      </c>
+      <c r="L42">
+        <v>90199</v>
+      </c>
+      <c r="M42">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="N42">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1067</v>
+      </c>
+      <c r="B43">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C43">
+        <v>5.2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2680</v>
+      </c>
+      <c r="F43">
+        <v>1000</v>
+      </c>
+      <c r="G43">
+        <v>4.6699999999999997E-3</v>
+      </c>
+      <c r="H43">
+        <v>6.0819999999999999E-2</v>
+      </c>
+      <c r="I43">
+        <v>0.98</v>
+      </c>
+      <c r="J43">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K43">
+        <v>0.86</v>
+      </c>
+      <c r="L43">
+        <v>86396</v>
+      </c>
+      <c r="M43">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N43">
+        <v>9.3799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1068</v>
+      </c>
+      <c r="B44">
+        <v>0.35</v>
+      </c>
+      <c r="C44">
+        <v>5.2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>2680</v>
+      </c>
+      <c r="F44">
+        <v>1000</v>
+      </c>
+      <c r="G44">
+        <v>3.1900000000000001E-3</v>
+      </c>
+      <c r="H44">
+        <v>6.0819999999999999E-2</v>
+      </c>
+      <c r="I44">
+        <v>0.88</v>
+      </c>
+      <c r="J44">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K44">
+        <v>0.74</v>
+      </c>
+      <c r="L44">
+        <v>81510</v>
+      </c>
+      <c r="M44">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N44">
+        <v>8.1300000000000003E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1069</v>
+      </c>
+      <c r="B45">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C45">
+        <v>5.2</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2680</v>
+      </c>
+      <c r="F45">
+        <v>1000</v>
+      </c>
+      <c r="G45">
+        <v>3.29E-3</v>
+      </c>
+      <c r="H45">
+        <v>6.0819999999999999E-2</v>
+      </c>
+      <c r="I45">
+        <v>0.88</v>
+      </c>
+      <c r="J45">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.74</v>
+      </c>
+      <c r="L45">
+        <v>81729</v>
+      </c>
+      <c r="M45">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N45">
+        <v>8.0400000000000003E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1070</v>
+      </c>
+      <c r="B46">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C46">
+        <v>5.2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2680</v>
+      </c>
+      <c r="F46">
+        <v>1000</v>
+      </c>
+      <c r="G46">
+        <v>3.7200000000000002E-3</v>
+      </c>
+      <c r="H46">
+        <v>4.335E-2</v>
+      </c>
+      <c r="I46">
+        <v>0.84</v>
+      </c>
+      <c r="J46">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="K46">
+        <v>0.8</v>
+      </c>
+      <c r="L46">
+        <v>67233</v>
+      </c>
+      <c r="M46">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="N46">
+        <v>8.12E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1071</v>
+      </c>
+      <c r="B47">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C47">
+        <v>5.2</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2680</v>
+      </c>
+      <c r="F47">
+        <v>1000</v>
+      </c>
+      <c r="G47">
+        <v>1.307E-2</v>
+      </c>
+      <c r="H47">
+        <v>4.335E-2</v>
+      </c>
+      <c r="I47">
+        <v>1.21</v>
+      </c>
+      <c r="J47">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K47">
+        <v>1.31</v>
+      </c>
+      <c r="L47">
+        <v>77999</v>
+      </c>
+      <c r="M47">
+        <v>0.13</v>
+      </c>
+      <c r="N47">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1072</v>
+      </c>
+      <c r="B48">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C48">
+        <v>5.2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2680</v>
+      </c>
+      <c r="F48">
+        <v>1000</v>
+      </c>
+      <c r="G48">
+        <v>5.62E-3</v>
+      </c>
+      <c r="H48">
+        <v>4.335E-2</v>
+      </c>
+      <c r="I48">
+        <v>0.94</v>
+      </c>
+      <c r="J48">
+        <v>0.13</v>
+      </c>
+      <c r="K48">
+        <v>0.93</v>
+      </c>
+      <c r="L48">
+        <v>70583</v>
+      </c>
+      <c r="M48">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N48">
+        <v>9.3600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1073</v>
+      </c>
+      <c r="B49">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C49">
+        <v>5.2</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2680</v>
+      </c>
+      <c r="F49">
+        <v>1000</v>
+      </c>
+      <c r="G49">
+        <v>9.8300000000000002E-3</v>
+      </c>
+      <c r="H49">
+        <v>8.2089999999999996E-2</v>
+      </c>
+      <c r="I49">
+        <v>1.28</v>
+      </c>
+      <c r="J49">
+        <v>0.182</v>
+      </c>
+      <c r="K49">
+        <v>1.06</v>
+      </c>
+      <c r="L49">
+        <v>114424</v>
+      </c>
+      <c r="M49">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="N49">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1074</v>
+      </c>
+      <c r="B50">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C50">
+        <v>5.2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2680</v>
+      </c>
+      <c r="F50">
+        <v>1000</v>
+      </c>
+      <c r="G50">
+        <v>5.3800000000000002E-3</v>
+      </c>
+      <c r="H50">
+        <v>8.2089999999999996E-2</v>
+      </c>
+      <c r="I50">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="J50">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K50">
+        <v>0.86</v>
+      </c>
+      <c r="L50">
+        <v>105214</v>
+      </c>
+      <c r="M50">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N50">
+        <v>2.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1075</v>
+      </c>
+      <c r="B51">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C51">
+        <v>5.2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2680</v>
+      </c>
+      <c r="F51">
+        <v>1000</v>
+      </c>
+      <c r="G51">
+        <v>3.1800000000000001E-3</v>
+      </c>
+      <c r="H51">
+        <v>8.2089999999999996E-2</v>
+      </c>
+      <c r="I51">
+        <v>0.93</v>
+      </c>
+      <c r="J51">
+        <v>0.248</v>
+      </c>
+      <c r="K51">
+        <v>0.71</v>
+      </c>
+      <c r="L51">
+        <v>96483</v>
+      </c>
+      <c r="M51">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N51">
+        <v>2.6199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1076</v>
+      </c>
+      <c r="B52">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C52">
+        <v>5.2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1250</v>
+      </c>
+      <c r="F52">
+        <v>1000</v>
+      </c>
+      <c r="G52">
+        <v>1.75E-3</v>
+      </c>
+      <c r="H52">
+        <v>0.01</v>
+      </c>
+      <c r="I52">
+        <v>0.37</v>
+      </c>
+      <c r="J52">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K52">
+        <v>0.45</v>
+      </c>
+      <c r="L52">
+        <v>19693</v>
+      </c>
+      <c r="M52">
+        <v>0.09</v>
+      </c>
+      <c r="N52">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1077</v>
+      </c>
+      <c r="B53">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C53">
+        <v>5.2</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1250</v>
+      </c>
+      <c r="F53">
+        <v>1000</v>
+      </c>
+      <c r="G53">
+        <v>3.2599999999999999E-3</v>
+      </c>
+      <c r="H53">
+        <v>0.01</v>
+      </c>
+      <c r="I53">
+        <v>0.45</v>
+      </c>
+      <c r="J53">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K53">
+        <v>0.6</v>
+      </c>
+      <c r="L53">
+        <v>20807</v>
+      </c>
+      <c r="M53">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="N53">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1078</v>
+      </c>
+      <c r="B54">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C54">
+        <v>5.2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1250</v>
+      </c>
+      <c r="F54">
+        <v>1000</v>
+      </c>
+      <c r="G54">
+        <v>4.2700000000000004E-3</v>
+      </c>
+      <c r="H54">
+        <v>0.01</v>
+      </c>
+      <c r="I54">
+        <v>0.49</v>
+      </c>
+      <c r="J54">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K54">
+        <v>0.67</v>
+      </c>
+      <c r="L54">
+        <v>21259</v>
+      </c>
+      <c r="M54">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="N54">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1079</v>
+      </c>
+      <c r="B55">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C55">
+        <v>5.2</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1250</v>
+      </c>
+      <c r="F55">
+        <v>1000</v>
+      </c>
+      <c r="G55">
+        <v>6.9699999999999996E-3</v>
+      </c>
+      <c r="H55">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I55">
+        <v>0.42</v>
+      </c>
+      <c r="J55">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K55">
+        <v>0.76</v>
+      </c>
+      <c r="L55">
+        <v>11888</v>
+      </c>
+      <c r="M55">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="N55">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1080</v>
+      </c>
+      <c r="B56">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C56">
+        <v>5.2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1250</v>
+      </c>
+      <c r="F56">
+        <v>1000</v>
+      </c>
+      <c r="G56">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H56">
+        <v>2.1610000000000001E-2</v>
+      </c>
+      <c r="I56">
+        <v>0.52</v>
+      </c>
+      <c r="J56">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="K56">
+        <v>0.53</v>
+      </c>
+      <c r="L56">
+        <v>36764</v>
+      </c>
+      <c r="M56">
+        <v>0.215</v>
+      </c>
+      <c r="N56">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1081</v>
+      </c>
+      <c r="B57">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C57">
+        <v>5.2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1250</v>
+      </c>
+      <c r="F57">
+        <v>1000</v>
+      </c>
+      <c r="G57">
+        <v>2.1700000000000001E-3</v>
+      </c>
+      <c r="H57">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I57">
+        <v>0.31</v>
+      </c>
+      <c r="J57">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K57">
+        <v>0.48</v>
+      </c>
+      <c r="L57">
+        <v>11211</v>
+      </c>
+      <c r="M57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N57">
+        <v>4.0800000000000003E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1082</v>
+      </c>
+      <c r="B58">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C58">
+        <v>5.2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1250</v>
+      </c>
+      <c r="F58">
+        <v>1000</v>
+      </c>
+      <c r="G58">
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="H58">
+        <v>0.01</v>
+      </c>
+      <c r="I58">
+        <v>0.34</v>
+      </c>
+      <c r="J58">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.42</v>
+      </c>
+      <c r="L58">
+        <v>19298</v>
+      </c>
+      <c r="M58">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N58">
+        <v>4.0800000000000003E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1083</v>
+      </c>
+      <c r="B59">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C59">
+        <v>5.2</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1250</v>
+      </c>
+      <c r="F59">
+        <v>1000</v>
+      </c>
+      <c r="G59">
+        <v>6.3800000000000003E-3</v>
+      </c>
+      <c r="H59">
+        <v>0.01</v>
+      </c>
+      <c r="I59">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J59">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K59">
+        <v>0.82</v>
+      </c>
+      <c r="L59">
+        <v>21949</v>
+      </c>
+      <c r="M59">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="N59">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1084</v>
+      </c>
+      <c r="B60">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="C60">
+        <v>5.2</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1250</v>
+      </c>
+      <c r="F60">
+        <v>1000</v>
+      </c>
+      <c r="G60">
+        <v>3.9100000000000003E-3</v>
+      </c>
+      <c r="H60">
+        <v>2.1610000000000001E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.62</v>
+      </c>
+      <c r="J60">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="K60">
+        <v>0.69</v>
+      </c>
+      <c r="L60">
+        <v>39320</v>
+      </c>
+      <c r="M60">
+        <v>0.252</v>
+      </c>
+      <c r="N60">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1085</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>1.7</v>
+      </c>
+      <c r="D61">
+        <v>5.71</v>
+      </c>
+      <c r="E61">
+        <v>2680</v>
+      </c>
+      <c r="F61">
+        <v>1000</v>
+      </c>
+      <c r="G61">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H61">
+        <v>0.15</v>
+      </c>
+      <c r="I61">
+        <v>0.68</v>
+      </c>
+      <c r="J61">
+        <v>0.11</v>
+      </c>
+      <c r="K61">
+        <v>0.67</v>
+      </c>
+      <c r="L61">
+        <v>67568</v>
+      </c>
+      <c r="M61">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="N61">
+        <v>5.7099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1086</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>1.6</v>
+      </c>
+      <c r="D62">
+        <v>5.71</v>
+      </c>
+      <c r="E62">
+        <v>2680</v>
+      </c>
+      <c r="F62">
+        <v>1000</v>
+      </c>
+      <c r="G62">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H62">
+        <v>0.1</v>
+      </c>
+      <c r="I62">
+        <v>0.64</v>
+      </c>
+      <c r="J62">
+        <v>7.8E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.75</v>
+      </c>
+      <c r="L62">
+        <v>46382</v>
+      </c>
+      <c r="M62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N62">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1087</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1.6</v>
+      </c>
+      <c r="D63">
+        <v>5.71</v>
+      </c>
+      <c r="E63">
+        <v>2680</v>
+      </c>
+      <c r="F63">
+        <v>1000</v>
+      </c>
+      <c r="G63">
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="H63">
+        <v>0.1</v>
+      </c>
+      <c r="I63">
+        <v>0.63</v>
+      </c>
+      <c r="J63">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.73</v>
+      </c>
+      <c r="L63">
+        <v>46339</v>
+      </c>
+      <c r="M63">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N63">
+        <v>1.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1088</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>1.6</v>
+      </c>
+      <c r="D64">
+        <v>5.71</v>
+      </c>
+      <c r="E64">
+        <v>2680</v>
+      </c>
+      <c r="F64">
+        <v>1000</v>
+      </c>
+      <c r="G64">
+        <v>2.4399999999999999E-3</v>
+      </c>
+      <c r="H64">
+        <v>0.12</v>
+      </c>
+      <c r="I64">
+        <v>0.63</v>
+      </c>
+      <c r="J64">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.67</v>
+      </c>
+      <c r="L64">
+        <v>54795</v>
+      </c>
+      <c r="M64">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N64">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>1089</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>1.9</v>
+      </c>
+      <c r="D65">
+        <v>5.71</v>
+      </c>
+      <c r="E65">
+        <v>2680</v>
+      </c>
+      <c r="F65">
+        <v>1000</v>
+      </c>
+      <c r="G65">
+        <v>2.4199999999999998E-3</v>
+      </c>
+      <c r="H65">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I65">
+        <v>0.75</v>
+      </c>
+      <c r="J65">
+        <v>0.15</v>
+      </c>
+      <c r="K65">
+        <v>0.63</v>
+      </c>
+      <c r="L65">
+        <v>97826</v>
+      </c>
+      <c r="M65">
+        <v>0.109</v>
+      </c>
+      <c r="N65">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1090</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>1.9</v>
+      </c>
+      <c r="D66">
+        <v>5.71</v>
+      </c>
+      <c r="E66">
+        <v>2680</v>
+      </c>
+      <c r="F66">
+        <v>1000</v>
+      </c>
+      <c r="G66">
+        <v>2.65E-3</v>
+      </c>
+      <c r="H66">
+        <v>0.18</v>
+      </c>
+      <c r="I66">
+        <v>0.73</v>
+      </c>
+      <c r="J66">
+        <v>0.123</v>
+      </c>
+      <c r="K66">
+        <v>0.68</v>
+      </c>
+      <c r="L66">
+        <v>80142</v>
+      </c>
+      <c r="M66">
+        <v>0.1</v>
+      </c>
+      <c r="N66">
+        <v>7.6499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1091</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>5.71</v>
+      </c>
+      <c r="E67">
+        <v>2680</v>
+      </c>
+      <c r="F67">
+        <v>1000</v>
+      </c>
+      <c r="G67">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="H67">
+        <v>0.26</v>
+      </c>
+      <c r="I67">
+        <v>0.78</v>
+      </c>
+      <c r="J67">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="K67">
+        <v>0.63</v>
+      </c>
+      <c r="L67">
+        <v>111492</v>
+      </c>
+      <c r="M67">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="N67">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1092</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>5.71</v>
+      </c>
+      <c r="E68">
+        <v>2680</v>
+      </c>
+      <c r="F68">
+        <v>1000</v>
+      </c>
+      <c r="G68">
+        <v>2.2499999999999998E-3</v>
+      </c>
+      <c r="H68">
+        <v>0.26</v>
+      </c>
+      <c r="I68">
+        <v>0.76</v>
+      </c>
+      <c r="J68">
+        <v>0.17</v>
+      </c>
+      <c r="K68">
+        <v>0.61</v>
+      </c>
+      <c r="L68">
+        <v>111111</v>
+      </c>
+      <c r="M68">
+        <v>0.108</v>
+      </c>
+      <c r="N68">
+        <v>7.3800000000000004E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>1093</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>1.8</v>
+      </c>
+      <c r="D69">
+        <v>5.71</v>
+      </c>
+      <c r="E69">
+        <v>2680</v>
+      </c>
+      <c r="F69">
+        <v>1000</v>
+      </c>
+      <c r="G69">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H69">
+        <v>0.15</v>
+      </c>
+      <c r="I69">
+        <v>0.65</v>
+      </c>
+      <c r="J69">
+        <v>0.115</v>
+      </c>
+      <c r="K69">
+        <v>0.63</v>
+      </c>
+      <c r="L69">
+        <v>67265</v>
+      </c>
+      <c r="M69">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="N69">
+        <v>3.32E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1094</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>5.71</v>
+      </c>
+      <c r="E70">
+        <v>2680</v>
+      </c>
+      <c r="F70">
+        <v>1000</v>
+      </c>
+      <c r="G70">
+        <v>2.3500000000000001E-3</v>
+      </c>
+      <c r="H70">
+        <v>0.19</v>
+      </c>
+      <c r="I70">
+        <v>0.7</v>
+      </c>
+      <c r="J70">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="K70">
+        <v>0.63</v>
+      </c>
+      <c r="L70">
+        <v>83700</v>
+      </c>
+      <c r="M70">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N70">
+        <v>4.5199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1095</v>
+      </c>
+      <c r="B71">
+        <v>0.42</v>
+      </c>
+      <c r="C71">
+        <v>3.3</v>
+      </c>
+      <c r="D71">
+        <v>3.82</v>
+      </c>
+      <c r="E71">
+        <v>2680</v>
+      </c>
+      <c r="F71">
+        <v>1000</v>
+      </c>
+      <c r="G71">
+        <v>2.6800000000000001E-3</v>
+      </c>
+      <c r="H71">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="I71">
+        <v>0.8</v>
+      </c>
+      <c r="J71">
+        <v>0.2</v>
+      </c>
+      <c r="K71">
+        <v>0.65</v>
+      </c>
+      <c r="L71">
+        <v>82317</v>
+      </c>
+      <c r="M71">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N71">
+        <v>4.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>1096</v>
+      </c>
+      <c r="B72">
+        <v>0.42</v>
+      </c>
+      <c r="C72">
+        <v>3.3</v>
+      </c>
+      <c r="D72">
+        <v>3.82</v>
+      </c>
+      <c r="E72">
+        <v>2680</v>
+      </c>
+      <c r="F72">
+        <v>1000</v>
+      </c>
+      <c r="G72">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="H72">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="I72">
+        <v>0.78</v>
+      </c>
+      <c r="J72">
+        <v>0.185</v>
+      </c>
+      <c r="K72">
+        <v>0.66</v>
+      </c>
+      <c r="L72">
+        <v>76835</v>
+      </c>
+      <c r="M72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N72">
+        <v>3.5799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1097</v>
+      </c>
+      <c r="B73">
+        <v>0.42</v>
+      </c>
+      <c r="C73">
+        <v>3.3</v>
+      </c>
+      <c r="D73">
+        <v>3.82</v>
+      </c>
+      <c r="E73">
+        <v>2680</v>
+      </c>
+      <c r="F73">
+        <v>1000</v>
+      </c>
+      <c r="G73">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="H73">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="I73">
+        <v>0.75</v>
+      </c>
+      <c r="J73">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="K73">
+        <v>0.65</v>
+      </c>
+      <c r="L73">
+        <v>70997</v>
+      </c>
+      <c r="M73">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="N73">
+        <v>2.31E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>1098</v>
+      </c>
+      <c r="B74">
+        <v>0.42</v>
+      </c>
+      <c r="C74">
+        <v>3.3</v>
+      </c>
+      <c r="D74">
+        <v>3.82</v>
+      </c>
+      <c r="E74">
+        <v>2680</v>
+      </c>
+      <c r="F74">
+        <v>1000</v>
+      </c>
+      <c r="G74">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="H74">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="I74">
+        <v>0.7</v>
+      </c>
+      <c r="J74">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="K74">
+        <v>0.64</v>
+      </c>
+      <c r="L74">
+        <v>61142</v>
+      </c>
+      <c r="M74">
+        <v>0.06</v>
+      </c>
+      <c r="N74">
+        <v>5.7700000000000004E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1099</v>
+      </c>
+      <c r="B75">
+        <v>0.42</v>
+      </c>
+      <c r="C75">
+        <v>3.3</v>
+      </c>
+      <c r="D75">
+        <v>3.82</v>
+      </c>
+      <c r="E75">
+        <v>2680</v>
+      </c>
+      <c r="F75">
+        <v>1000</v>
+      </c>
+      <c r="G75">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="H75">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I75">
+        <v>0.65</v>
+      </c>
+      <c r="J75">
+        <v>0.128</v>
+      </c>
+      <c r="K75">
+        <v>0.64</v>
+      </c>
+      <c r="L75">
+        <v>51775</v>
+      </c>
+      <c r="M75">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N75">
+        <v>1.15E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>1100</v>
+      </c>
+      <c r="B76">
+        <v>0.42</v>
+      </c>
+      <c r="C76">
+        <v>3.3</v>
+      </c>
+      <c r="D76">
+        <v>3.82</v>
+      </c>
+      <c r="E76">
+        <v>2680</v>
+      </c>
+      <c r="F76">
+        <v>1000</v>
+      </c>
+      <c r="G76">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="H76">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="I76">
+        <v>0.78</v>
+      </c>
+      <c r="J76">
+        <v>0.185</v>
+      </c>
+      <c r="K76">
+        <v>0.66</v>
+      </c>
+      <c r="L76">
+        <v>76835</v>
+      </c>
+      <c r="M76">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N76">
+        <v>3.6900000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1101</v>
+      </c>
+      <c r="B77">
+        <v>0.42</v>
+      </c>
+      <c r="C77">
+        <v>3.3</v>
+      </c>
+      <c r="D77">
+        <v>3.82</v>
+      </c>
+      <c r="E77">
+        <v>2680</v>
+      </c>
+      <c r="F77">
+        <v>1000</v>
+      </c>
+      <c r="G77">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="H77">
+        <v>9.06E-2</v>
+      </c>
+      <c r="I77">
+        <v>0.89</v>
+      </c>
+      <c r="J77">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K77">
+        <v>0.67</v>
+      </c>
+      <c r="L77">
+        <v>100000</v>
+      </c>
+      <c r="M77">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="N77">
+        <v>2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1102</v>
+      </c>
+      <c r="B78">
+        <v>0.42</v>
+      </c>
+      <c r="C78">
+        <v>3.3</v>
+      </c>
+      <c r="D78">
+        <v>3.82</v>
+      </c>
+      <c r="E78">
+        <v>2680</v>
+      </c>
+      <c r="F78">
+        <v>1000</v>
+      </c>
+      <c r="G78">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="H78">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="I78">
+        <v>0.78</v>
+      </c>
+      <c r="J78">
+        <v>0.185</v>
+      </c>
+      <c r="K78">
+        <v>0.66</v>
+      </c>
+      <c r="L78">
+        <v>76835</v>
+      </c>
+      <c r="M78">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="N78">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1103</v>
+      </c>
+      <c r="B79">
+        <v>0.42</v>
+      </c>
+      <c r="C79">
+        <v>3.3</v>
+      </c>
+      <c r="D79">
+        <v>3.82</v>
+      </c>
+      <c r="E79">
+        <v>2680</v>
+      </c>
+      <c r="F79">
+        <v>1000</v>
+      </c>
+      <c r="G79">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="H79">
+        <v>9.06E-2</v>
+      </c>
+      <c r="I79">
+        <v>0.89</v>
+      </c>
+      <c r="J79">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="K79">
+        <v>0.67</v>
+      </c>
+      <c r="L79">
+        <v>100221</v>
+      </c>
+      <c r="M79">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="N79">
+        <v>3.3599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>1104</v>
+      </c>
+      <c r="B80">
+        <v>0.42</v>
+      </c>
+      <c r="C80">
+        <v>3.3</v>
+      </c>
+      <c r="D80">
+        <v>3.82</v>
+      </c>
+      <c r="E80">
+        <v>2680</v>
+      </c>
+      <c r="F80">
+        <v>1000</v>
+      </c>
+      <c r="G80">
+        <v>2.82E-3</v>
+      </c>
+      <c r="H80">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I80">
+        <v>0.88</v>
+      </c>
+      <c r="J80">
+        <v>0.23</v>
+      </c>
+      <c r="K80">
+        <v>0.68</v>
+      </c>
+      <c r="L80">
+        <v>96591</v>
+      </c>
+      <c r="M80">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N80">
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1105</v>
+      </c>
+      <c r="B81">
+        <v>0.42</v>
+      </c>
+      <c r="C81">
+        <v>3.3</v>
+      </c>
+      <c r="D81">
+        <v>3.82</v>
+      </c>
+      <c r="E81">
+        <v>2680</v>
+      </c>
+      <c r="F81">
+        <v>1000</v>
+      </c>
+      <c r="G81">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="H81">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="I81">
+        <v>0.84</v>
+      </c>
+      <c r="J81">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="K81">
+        <v>0.67</v>
+      </c>
+      <c r="L81">
+        <v>88836</v>
+      </c>
+      <c r="M81">
+        <v>0.08</v>
+      </c>
+      <c r="N81">
+        <v>2.0899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1106</v>
+      </c>
+      <c r="B82">
+        <v>0.42</v>
+      </c>
+      <c r="C82">
+        <v>3.3</v>
+      </c>
+      <c r="D82">
+        <v>3.82</v>
+      </c>
+      <c r="E82">
+        <v>2680</v>
+      </c>
+      <c r="F82">
+        <v>1000</v>
+      </c>
+      <c r="G82">
+        <v>2.7599999999999999E-3</v>
+      </c>
+      <c r="H82">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="I82">
+        <v>0.81</v>
+      </c>
+      <c r="J82">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="K82">
+        <v>0.66</v>
+      </c>
+      <c r="L82">
+        <v>82885</v>
+      </c>
+      <c r="M82">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N82">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1107</v>
+      </c>
+      <c r="B83">
+        <v>0.42</v>
+      </c>
+      <c r="C83">
+        <v>3.3</v>
+      </c>
+      <c r="D83">
+        <v>3.82</v>
+      </c>
+      <c r="E83">
+        <v>2680</v>
+      </c>
+      <c r="F83">
+        <v>1000</v>
+      </c>
+      <c r="G83">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="H83">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="I83">
+        <v>0.78</v>
+      </c>
+      <c r="J83">
+        <v>0.185</v>
+      </c>
+      <c r="K83">
+        <v>0.66</v>
+      </c>
+      <c r="L83">
+        <v>76835</v>
+      </c>
+      <c r="M83">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N83">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1108</v>
+      </c>
+      <c r="B84">
+        <v>0.42</v>
+      </c>
+      <c r="C84">
+        <v>3.3</v>
+      </c>
+      <c r="D84">
+        <v>3.82</v>
+      </c>
+      <c r="E84">
+        <v>2680</v>
+      </c>
+      <c r="F84">
+        <v>1000</v>
+      </c>
+      <c r="G84">
+        <v>2.7200000000000002E-3</v>
+      </c>
+      <c r="H84">
+        <v>0.05</v>
+      </c>
+      <c r="I84">
+        <v>0.73</v>
+      </c>
+      <c r="J84">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="K84">
+        <v>0.65</v>
+      </c>
+      <c r="L84">
+        <v>67024</v>
+      </c>
+      <c r="M84">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="N84">
+        <v>4.2700000000000004E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1109</v>
+      </c>
+      <c r="B85">
+        <v>0.42</v>
+      </c>
+      <c r="C85">
+        <v>3.3</v>
+      </c>
+      <c r="D85">
+        <v>3.82</v>
+      </c>
+      <c r="E85">
+        <v>2680</v>
+      </c>
+      <c r="F85">
+        <v>1000</v>
+      </c>
+      <c r="G85">
+        <v>2.7399999999999998E-3</v>
+      </c>
+      <c r="H85">
+        <v>0.04</v>
+      </c>
+      <c r="I85">
+        <v>0.68</v>
+      </c>
+      <c r="J85">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K85">
+        <v>0.64</v>
+      </c>
+      <c r="L85">
+        <v>57143</v>
+      </c>
+      <c r="M85">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N85">
+        <v>1.73E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1110</v>
+      </c>
+      <c r="B86">
+        <v>0.42</v>
+      </c>
+      <c r="C86">
+        <v>3.3</v>
+      </c>
+      <c r="D86">
+        <v>3.82</v>
+      </c>
+      <c r="E86">
+        <v>2680</v>
+      </c>
+      <c r="F86">
+        <v>1000</v>
+      </c>
+      <c r="G86">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="H86">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="I86">
+        <v>0.79</v>
+      </c>
+      <c r="J86">
+        <v>0.184</v>
+      </c>
+      <c r="K86">
+        <v>0.66</v>
+      </c>
+      <c r="L86">
+        <v>77030</v>
+      </c>
+      <c r="M86">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N86">
+        <v>9.4699999999999993E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1111</v>
+      </c>
+      <c r="B87">
+        <v>0.42</v>
+      </c>
+      <c r="C87">
+        <v>2.7</v>
+      </c>
+      <c r="D87">
+        <v>3.53</v>
+      </c>
+      <c r="E87">
+        <v>2680</v>
+      </c>
+      <c r="F87">
+        <v>1000</v>
+      </c>
+      <c r="G87">
+        <v>2.7299999999999998E-3</v>
+      </c>
+      <c r="H87">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="I87">
+        <v>0.7</v>
+      </c>
+      <c r="J87">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K87">
+        <v>0.66</v>
+      </c>
+      <c r="L87">
+        <v>58714</v>
+      </c>
+      <c r="M87">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N87">
+        <v>7.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1112</v>
+      </c>
+      <c r="B88">
+        <v>0.42</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>4.59</v>
+      </c>
+      <c r="E88">
+        <v>2680</v>
+      </c>
+      <c r="F88">
+        <v>1000</v>
+      </c>
+      <c r="G88">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="H88">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="I88">
+        <v>0.79</v>
+      </c>
+      <c r="J88">
+        <v>0.188</v>
+      </c>
+      <c r="K88">
+        <v>0.66</v>
+      </c>
+      <c r="L88">
+        <v>78015</v>
+      </c>
+      <c r="M88">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N88">
+        <v>2.5699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1113</v>
+      </c>
+      <c r="B89">
+        <v>0.42</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>4.59</v>
+      </c>
+      <c r="E89">
+        <v>2680</v>
+      </c>
+      <c r="F89">
+        <v>1000</v>
+      </c>
+      <c r="G89">
+        <v>2.66E-3</v>
+      </c>
+      <c r="H89">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="I89">
+        <v>0.7</v>
+      </c>
+      <c r="J89">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="K89">
+        <v>0.65</v>
+      </c>
+      <c r="L89">
+        <v>60364</v>
+      </c>
+      <c r="M89">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N89">
+        <v>1.7100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1114</v>
+      </c>
+      <c r="B90">
+        <v>0.42</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>4.59</v>
+      </c>
+      <c r="E90">
+        <v>2680</v>
+      </c>
+      <c r="F90">
+        <v>1000</v>
+      </c>
+      <c r="G90">
+        <v>2.81E-3</v>
+      </c>
+      <c r="H90">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="I90">
+        <v>0.9</v>
+      </c>
+      <c r="J90">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K90">
+        <v>0.68</v>
+      </c>
+      <c r="L90">
+        <v>101982</v>
+      </c>
+      <c r="M90">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N90">
+        <v>1.4800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1115</v>
+      </c>
+      <c r="B91">
+        <v>0.42</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>4.59</v>
+      </c>
+      <c r="E91">
+        <v>2680</v>
+      </c>
+      <c r="F91">
+        <v>1000</v>
+      </c>
+      <c r="G91">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="H91">
+        <v>0.05</v>
+      </c>
+      <c r="I91">
+        <v>0.73</v>
+      </c>
+      <c r="J91">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="K91">
+        <v>0.64</v>
+      </c>
+      <c r="L91">
+        <v>66845</v>
+      </c>
+      <c r="M91">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N91">
+        <v>4.28E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1116</v>
+      </c>
+      <c r="B92">
+        <v>0.65</v>
+      </c>
+      <c r="C92">
+        <v>1.3</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>2680</v>
+      </c>
+      <c r="F92">
+        <v>1000</v>
+      </c>
+      <c r="G92">
+        <v>2.8300000000000001E-3</v>
+      </c>
+      <c r="H92">
+        <v>0.02</v>
+      </c>
+      <c r="I92">
+        <v>0.49</v>
+      </c>
+      <c r="J92">
+        <v>6.3E-2</v>
+      </c>
+      <c r="K92">
+        <v>0.64</v>
+      </c>
+      <c r="L92">
+        <v>25773</v>
+      </c>
+      <c r="M92">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N92">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1117</v>
+      </c>
+      <c r="B93">
+        <v>0.65</v>
+      </c>
+      <c r="C93">
+        <v>1.4</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>2680</v>
+      </c>
+      <c r="F93">
+        <v>1000</v>
+      </c>
+      <c r="G93">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="H93">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="I93">
+        <v>0.62</v>
+      </c>
+      <c r="J93">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K93">
+        <v>0.69</v>
+      </c>
+      <c r="L93">
+        <v>44111</v>
+      </c>
+      <c r="M93">
+        <v>0.112</v>
+      </c>
+      <c r="N93">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1118</v>
+      </c>
+      <c r="B94">
+        <v>0.65</v>
+      </c>
+      <c r="C94">
+        <v>1.2</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>2680</v>
+      </c>
+      <c r="F94">
+        <v>1000</v>
+      </c>
+      <c r="G94">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="H94">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I94">
+        <v>0.43</v>
+      </c>
+      <c r="J94">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K94">
+        <v>0.62</v>
+      </c>
+      <c r="L94">
+        <v>19231</v>
+      </c>
+      <c r="M94">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N94">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1119</v>
+      </c>
+      <c r="B95">
+        <v>0.65</v>
+      </c>
+      <c r="C95">
+        <v>1.3</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>2680</v>
+      </c>
+      <c r="F95">
+        <v>1000</v>
+      </c>
+      <c r="G95">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="H95">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="I95">
+        <v>0.54</v>
+      </c>
+      <c r="J95">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K95">
+        <v>0.66</v>
+      </c>
+      <c r="L95">
+        <v>33125</v>
+      </c>
+      <c r="M95">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N95">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1120</v>
+      </c>
+      <c r="B96">
+        <v>0.65</v>
+      </c>
+      <c r="C96">
+        <v>1.4</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>2680</v>
+      </c>
+      <c r="F96">
+        <v>1000</v>
+      </c>
+      <c r="G96">
+        <v>3.0400000000000002E-3</v>
+      </c>
+      <c r="H96">
+        <v>2.86E-2</v>
+      </c>
+      <c r="I96">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J96">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K96">
+        <v>0.69</v>
+      </c>
+      <c r="L96">
+        <v>35572</v>
+      </c>
+      <c r="M96">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N96">
+        <v>5.67E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1121</v>
+      </c>
+      <c r="B97">
+        <v>0.3</v>
+      </c>
+      <c r="C97">
+        <v>1.4</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97">
+        <v>2680</v>
+      </c>
+      <c r="F97">
+        <v>1000</v>
+      </c>
+      <c r="G97">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="H97">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I97">
+        <v>0.4</v>
+      </c>
+      <c r="J97">
+        <v>0.01</v>
+      </c>
+      <c r="K97">
+        <v>1.3</v>
+      </c>
+      <c r="L97">
+        <v>3750</v>
+      </c>
+      <c r="M97">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N97">
+        <v>4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1122</v>
+      </c>
+      <c r="B98">
+        <v>0.15</v>
+      </c>
+      <c r="C98">
+        <v>1.5</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>2680</v>
+      </c>
+      <c r="F98">
+        <v>1000</v>
+      </c>
+      <c r="G98">
+        <v>1.95E-2</v>
+      </c>
+      <c r="H98">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I98">
+        <v>0.4</v>
+      </c>
+      <c r="J98">
+        <v>0.01</v>
+      </c>
+      <c r="K98">
+        <v>1.31</v>
+      </c>
+      <c r="L98">
+        <v>3529</v>
+      </c>
+      <c r="M98">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N98">
+        <v>4.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1123</v>
+      </c>
+      <c r="B99">
+        <v>0.15</v>
+      </c>
+      <c r="C99">
+        <v>1.6</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>2680</v>
+      </c>
+      <c r="F99">
+        <v>1000</v>
+      </c>
+      <c r="G99">
+        <v>2.07E-2</v>
+      </c>
+      <c r="H99">
+        <v>1E-3</v>
+      </c>
+      <c r="I99">
+        <v>0.48</v>
+      </c>
+      <c r="J99">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K99">
+        <v>1.33</v>
+      </c>
+      <c r="L99">
+        <v>5618</v>
+      </c>
+      <c r="M99">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="N99">
+        <v>5.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1124</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>4.5</v>
+      </c>
+      <c r="D100">
+        <v>5.22</v>
+      </c>
+      <c r="E100">
+        <v>2680</v>
+      </c>
+      <c r="F100">
+        <v>1000</v>
+      </c>
+      <c r="G100">
+        <v>8.2699999999999996E-3</v>
+      </c>
+      <c r="H100">
+        <v>0.16</v>
+      </c>
+      <c r="I100">
+        <v>0.92</v>
+      </c>
+      <c r="J100">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K100">
+        <v>1.01</v>
+      </c>
+      <c r="L100">
+        <v>73597</v>
+      </c>
+      <c r="M100">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N100">
+        <v>5.5500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1125</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D101">
+        <v>5.22</v>
+      </c>
+      <c r="E101">
+        <v>2680</v>
+      </c>
+      <c r="F101">
+        <v>1000</v>
+      </c>
+      <c r="G101">
+        <v>8.0099999999999998E-3</v>
+      </c>
+      <c r="H101">
+        <v>0.22</v>
+      </c>
+      <c r="I101">
+        <v>1.02</v>
+      </c>
+      <c r="J101">
+        <v>0.108</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>99278</v>
+      </c>
+      <c r="M101">
+        <v>0.113</v>
+      </c>
+      <c r="N101">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1126</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D102">
+        <v>5.22</v>
+      </c>
+      <c r="E102">
+        <v>2680</v>
+      </c>
+      <c r="F102">
+        <v>1000</v>
+      </c>
+      <c r="G102">
+        <v>8.1099999999999992E-3</v>
+      </c>
+      <c r="H102">
+        <v>0.22</v>
+      </c>
+      <c r="I102">
+        <v>1.04</v>
+      </c>
+      <c r="J102">
+        <v>0.106</v>
+      </c>
+      <c r="K102">
+        <v>1.03</v>
+      </c>
+      <c r="L102">
+        <v>99458</v>
+      </c>
+      <c r="M102">
+        <v>0.112</v>
+      </c>
+      <c r="N102">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1127</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D103">
+        <v>5.22</v>
+      </c>
+      <c r="E103">
+        <v>2680</v>
+      </c>
+      <c r="F103">
+        <v>1000</v>
+      </c>
+      <c r="G103">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="H103">
+        <v>0.25</v>
+      </c>
+      <c r="I103">
+        <v>1.18</v>
+      </c>
+      <c r="J103">
+        <v>0.106</v>
+      </c>
+      <c r="K103">
+        <v>1.18</v>
+      </c>
+      <c r="L103">
+        <v>113020</v>
+      </c>
+      <c r="M103">
+        <v>0.111</v>
+      </c>
+      <c r="N103">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1128</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D104">
+        <v>5.22</v>
+      </c>
+      <c r="E104">
+        <v>2680</v>
+      </c>
+      <c r="F104">
+        <v>1000</v>
+      </c>
+      <c r="G104">
+        <v>8.1300000000000001E-3</v>
+      </c>
+      <c r="H104">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I104">
+        <v>0.98</v>
+      </c>
+      <c r="J104">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="K104">
+        <v>1.01</v>
+      </c>
+      <c r="L104">
+        <v>88717</v>
+      </c>
+      <c r="M104">
+        <v>0.106</v>
+      </c>
+      <c r="N104">
+        <v>8.14E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1129</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>4.5</v>
+      </c>
+      <c r="D105">
+        <v>5.22</v>
+      </c>
+      <c r="E105">
+        <v>2680</v>
+      </c>
+      <c r="F105">
+        <v>1000</v>
+      </c>
+      <c r="G105">
+        <v>8.1899999999999994E-3</v>
+      </c>
+      <c r="H105">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I105">
+        <v>0.81</v>
+      </c>
+      <c r="J105">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K105">
+        <v>0.9</v>
+      </c>
+      <c r="L105">
+        <v>64457</v>
+      </c>
+      <c r="M105">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N105">
+        <v>4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1130</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D106">
+        <v>5.22</v>
+      </c>
+      <c r="E106">
+        <v>2680</v>
+      </c>
+      <c r="F106">
+        <v>1000</v>
+      </c>
+      <c r="G106">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="H106">
+        <v>0.1</v>
+      </c>
+      <c r="I106">
+        <v>0.74</v>
+      </c>
+      <c r="J106">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K106">
+        <v>0.91</v>
+      </c>
+      <c r="L106">
+        <v>46816</v>
+      </c>
+      <c r="M106">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N106">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>